--- a/lin_R1_by_R2 (1 by 100)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 100)1000.xlsx
@@ -356,6 +356,152 @@
         <v>-0.1309282398962621</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -659,6 +805,152 @@
       </c>
       <c r="AV2" t="n">
         <v>-0.08722585045417892</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
       </c>
     </row>
   </sheetData>
@@ -966,6 +1258,152 @@
         <v>-0.04393434774408124</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1271,6 +1709,152 @@
         <v>0.014623143954203013</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (1 by 100)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 100)1000.xlsx
@@ -66,142 +66,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>17.14815795518886</v>
+        <v>17.125641860235604</v>
       </c>
       <c r="B1" t="n">
-        <v>17.137357405880884</v>
+        <v>17.10176976415322</v>
       </c>
       <c r="C1" t="n">
-        <v>17.12027745157384</v>
+        <v>17.064119533097056</v>
       </c>
       <c r="D1" t="n">
-        <v>17.09330198830225</v>
+        <v>17.004906881905523</v>
       </c>
       <c r="E1" t="n">
-        <v>17.050784340630006</v>
+        <v>16.912196445907423</v>
       </c>
       <c r="F1" t="n">
-        <v>16.9839837039916</v>
+        <v>16.76804413931594</v>
       </c>
       <c r="G1" t="n">
-        <v>16.879556808722143</v>
+        <v>16.546311775732608</v>
       </c>
       <c r="H1" t="n">
-        <v>16.71758361097096</v>
+        <v>16.210838773667845</v>
       </c>
       <c r="I1" t="n">
-        <v>16.46937667494566</v>
+        <v>15.715744302715876</v>
       </c>
       <c r="J1" t="n">
-        <v>16.09598953941242</v>
+        <v>15.011182123154475</v>
       </c>
       <c r="K1" t="n">
-        <v>15.549589822182627</v>
+        <v>14.05851622634936</v>
       </c>
       <c r="L1" t="n">
-        <v>14.781388104885787</v>
+        <v>12.855038799836006</v>
       </c>
       <c r="M1" t="n">
-        <v>13.759692572857903</v>
+        <v>11.457010001838961</v>
       </c>
       <c r="N1" t="n">
-        <v>12.495885623196111</v>
+        <v>9.978649290600014</v>
       </c>
       <c r="O1" t="n">
-        <v>11.063360661345452</v>
+        <v>8.554589460071313</v>
       </c>
       <c r="P1" t="n">
-        <v>9.586798951091078</v>
+        <v>7.286824743202563</v>
       </c>
       <c r="Q1" t="n">
-        <v>8.196968590872292</v>
+        <v>6.215042468110179</v>
       </c>
       <c r="R1" t="n">
-        <v>6.980438207600963</v>
+        <v>5.32551440896603</v>
       </c>
       <c r="S1" t="n">
-        <v>5.960362884971597</v>
+        <v>4.580996840764765</v>
       </c>
       <c r="T1" t="n">
-        <v>5.113563961534434</v>
+        <v>3.94678411337578</v>
       </c>
       <c r="U1" t="n">
-        <v>4.401506396893689</v>
+        <v>3.4006992052094422</v>
       </c>
       <c r="V1" t="n">
-        <v>3.792558154780569</v>
+        <v>2.9299239006375575</v>
       </c>
       <c r="W1" t="n">
-        <v>3.267671529742577</v>
+        <v>2.5248728126620947</v>
       </c>
       <c r="X1" t="n">
-        <v>2.815396328797429</v>
+        <v>2.176625152675555</v>
       </c>
       <c r="Y1" t="n">
-        <v>2.426405844239911</v>
+        <v>1.8771207005208743</v>
       </c>
       <c r="Z1" t="n">
-        <v>2.091952840224483</v>
+        <v>1.6194554509974342</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.8042829285105573</v>
+        <v>1.3977352269927255</v>
       </c>
       <c r="AB1" t="n">
-        <v>1.55678374774893</v>
+        <v>1.2068991487251404</v>
       </c>
       <c r="AC1" t="n">
-        <v>1.343798159891586</v>
+        <v>1.042601610390044</v>
       </c>
       <c r="AD1" t="n">
-        <v>1.160467314609873</v>
+        <v>0.9011118767912464</v>
       </c>
       <c r="AE1" t="n">
-        <v>1.0026195928138393</v>
+        <v>0.7792267357024912</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.8666735232266022</v>
+        <v>0.6741956798526054</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.7495539817961522</v>
+        <v>0.5836567172591791</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.6486203863432972</v>
+        <v>0.5055812982714355</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.5616050861763919</v>
+        <v>0.4382270639519053</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.48656050246371324</v>
+        <v>0.3800973038998746</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.42181377525127584</v>
+        <v>0.3299061698163387</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.3659278500378128</v>
+        <v>0.2865488267427852</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.317668088588088</v>
+        <v>0.24907584024569918</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.2759736188401653</v>
+        <v>0.2166711976080104</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.2399327504181461</v>
+        <v>0.18863344668260754</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.20876187803397717</v>
+        <v>0.16435950948122563</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.18178737721016927</v>
+        <v>0.14333079054680675</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.15843006721802347</v>
+        <v>0.12510125417468196</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.13819187656581808</v>
+        <v>0.10928719088206316</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.12064439821437967</v>
+        <v>0.09555843326948252</v>
       </c>
       <c r="AU1" t="n">
         <v>0.10541906616667047</v>
@@ -212,142 +212,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-277.1126495505519</v>
+        <v>-186.37566490516804</v>
       </c>
       <c r="B2" t="n">
-        <v>-220.35089340950717</v>
+        <v>-148.38836442295295</v>
       </c>
       <c r="C2" t="n">
-        <v>-175.32300528991672</v>
+        <v>-118.30125081768338</v>
       </c>
       <c r="D2" t="n">
-        <v>-139.63047374555683</v>
+        <v>-94.51008974505889</v>
       </c>
       <c r="E2" t="n">
-        <v>-111.37133138143315</v>
+        <v>-75.74403542345414</v>
       </c>
       <c r="F2" t="n">
-        <v>-89.0382977723063</v>
+        <v>-60.99623888828705</v>
       </c>
       <c r="G2" t="n">
-        <v>-71.43742417640973</v>
+        <v>-49.46714602824271</v>
       </c>
       <c r="H2" t="n">
-        <v>-57.62249564562706</v>
+        <v>-40.51672185472038</v>
       </c>
       <c r="I2" t="n">
-        <v>-46.8410677230761</v>
+        <v>-33.622540114494846</v>
       </c>
       <c r="J2" t="n">
-        <v>-38.488516636232674</v>
+        <v>-28.34246545434795</v>
       </c>
       <c r="K2" t="n">
-        <v>-32.06736424151247</v>
+        <v>-24.284709229860045</v>
       </c>
       <c r="L2" t="n">
-        <v>-27.151430950431</v>
+        <v>-21.09379488819254</v>
       </c>
       <c r="M2" t="n">
-        <v>-23.35909975132238</v>
+        <v>-18.462024364012052</v>
       </c>
       <c r="N2" t="n">
-        <v>-20.345414340131846</v>
+        <v>-16.162047963719207</v>
       </c>
       <c r="O2" t="n">
-        <v>-17.820624860532405</v>
+        <v>-14.072194299078005</v>
       </c>
       <c r="P2" t="n">
-        <v>-15.58438528916407</v>
+        <v>-12.164119354601977</v>
       </c>
       <c r="Q2" t="n">
-        <v>-13.543065655511084</v>
+        <v>-10.456225899286181</v>
       </c>
       <c r="R2" t="n">
-        <v>-11.68611925233734</v>
+        <v>-8.966295081960928</v>
       </c>
       <c r="S2" t="n">
-        <v>-10.035642633886983</v>
+        <v>-7.689237525658229</v>
       </c>
       <c r="T2" t="n">
-        <v>-8.60423610505693</v>
+        <v>-6.600376513519175</v>
       </c>
       <c r="U2" t="n">
-        <v>-7.380485230145997</v>
+        <v>-5.669448055948969</v>
       </c>
       <c r="V2" t="n">
-        <v>-6.33680129188135</v>
+        <v>-4.870760956424005</v>
       </c>
       <c r="W2" t="n">
-        <v>-5.443516735838672</v>
+        <v>-4.184815383409297</v>
       </c>
       <c r="X2" t="n">
-        <v>-4.676727998125528</v>
+        <v>-3.595852790949333</v>
       </c>
       <c r="Y2" t="n">
-        <v>-4.0181957331695894</v>
+        <v>-3.0902291702716425</v>
       </c>
       <c r="Z2" t="n">
-        <v>-3.4528110142290513</v>
+        <v>-2.656112798381044</v>
       </c>
       <c r="AA2" t="n">
-        <v>-2.9674217814833574</v>
+        <v>-2.2833551949516937</v>
       </c>
       <c r="AB2" t="n">
-        <v>-2.5506664082370345</v>
+        <v>-1.963256089456697</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.192807820539816</v>
+        <v>-1.6883505151988005</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.8854954469277265</v>
+        <v>-1.4522336107857632</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.6215642552496687</v>
+        <v>-1.2494100146103686</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.3948667596616366</v>
+        <v>-1.075164568173367</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1.2001283793515014</v>
+        <v>-0.9254514244664028</v>
       </c>
       <c r="AH2" t="n">
-        <v>-1.032823355784114</v>
+        <v>-0.7967989258374757</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.8890683235633893</v>
+        <v>-0.6862280090548705</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.7655310163915154</v>
+        <v>-0.5911822132311954</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.6593519556484969</v>
+        <v>-0.5094676401032164</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.5680772747475797</v>
+        <v>-0.4392014509892098</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.48960109521713735</v>
+        <v>-0.3787676861598055</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.42211609583023246</v>
+        <v>-0.32677936511348954</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.3640711094068821</v>
+        <v>-0.2820459744221666</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.31413474771291267</v>
+        <v>-0.24354557690317513</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.27116419708703493</v>
+        <v>-0.21040088488189523</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.23417844940126564</v>
+        <v>-0.18185873380668996</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.2023353375782519</v>
+        <v>-0.1572724726723193</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.174911834621898</v>
+        <v>-0.13608685649206698</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.15128715208302224</v>
@@ -358,142 +358,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -517,142 +517,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>17.11331346264222</v>
+        <v>17.048643733429532</v>
       </c>
       <c r="B1" t="n">
-        <v>17.082260474165285</v>
+        <v>16.980359671655705</v>
       </c>
       <c r="C1" t="n">
-        <v>17.03327423715289</v>
+        <v>16.873246491105988</v>
       </c>
       <c r="D1" t="n">
-        <v>16.95620731980529</v>
+        <v>16.70621533479146</v>
       </c>
       <c r="E1" t="n">
-        <v>16.835478210821677</v>
+        <v>16.448136377580514</v>
       </c>
       <c r="F1" t="n">
-        <v>16.647606439804356</v>
+        <v>16.054999700842842</v>
       </c>
       <c r="G1" t="n">
-        <v>16.358261989771616</v>
+        <v>15.468889725703901</v>
       </c>
       <c r="H1" t="n">
-        <v>15.919666882456589</v>
+        <v>14.622559609444036</v>
       </c>
       <c r="I1" t="n">
-        <v>15.270602004008921</v>
+        <v>13.455199737529224</v>
       </c>
       <c r="J1" t="n">
-        <v>14.34340231867428</v>
+        <v>11.942825147448302</v>
       </c>
       <c r="K1" t="n">
-        <v>13.083582381207496</v>
+        <v>10.134912404861128</v>
       </c>
       <c r="L1" t="n">
-        <v>11.483474438764</v>
+        <v>8.170428777621021</v>
       </c>
       <c r="M1" t="n">
-        <v>9.616619314049846</v>
+        <v>6.245289481240417</v>
       </c>
       <c r="N1" t="n">
-        <v>7.6426612816358785</v>
+        <v>4.540490699593307</v>
       </c>
       <c r="O1" t="n">
-        <v>5.761168639703144</v>
+        <v>3.1610673607202764</v>
       </c>
       <c r="P1" t="n">
-        <v>4.13706342397844</v>
+        <v>2.124143664322907</v>
       </c>
       <c r="Q1" t="n">
-        <v>2.8508396113963084</v>
+        <v>1.3870146849385643</v>
       </c>
       <c r="R1" t="n">
-        <v>1.8999467604936633</v>
+        <v>0.8835574863418795</v>
       </c>
       <c r="S1" t="n">
-        <v>1.2321324133736924</v>
+        <v>0.549023186597532</v>
       </c>
       <c r="T1" t="n">
-        <v>0.7798521447087473</v>
+        <v>0.33077291751714927</v>
       </c>
       <c r="U1" t="n">
-        <v>0.4810257573976006</v>
+        <v>0.1900793527042029</v>
       </c>
       <c r="V1" t="n">
-        <v>0.28679720631968125</v>
+        <v>0.10007118264558411</v>
       </c>
       <c r="W1" t="n">
-        <v>0.16188915779599358</v>
+        <v>0.04275473568168759</v>
       </c>
       <c r="X1" t="n">
-        <v>0.08209895457820503</v>
+        <v>0.006340018982391608</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.03133155610700288</v>
+        <v>-0.016799542811717118</v>
       </c>
       <c r="Z1" t="n">
-        <v>-9.150532536282238E-4</v>
+        <v>-0.03156713805469712</v>
       </c>
       <c r="AA1" t="n">
-        <v>-0.021418887563453087</v>
+        <v>-0.0411192867315474</v>
       </c>
       <c r="AB1" t="n">
-        <v>-0.03453540317583385</v>
+        <v>-0.04751929978425823</v>
       </c>
       <c r="AC1" t="n">
-        <v>-0.04307477449050133</v>
+        <v>-0.052183840083372686</v>
       </c>
       <c r="AD1" t="n">
-        <v>-0.04888958352689082</v>
+        <v>-0.05621838190992281</v>
       </c>
       <c r="AE1" t="n">
-        <v>-0.05328281014994309</v>
+        <v>-0.06072647653568146</v>
       </c>
       <c r="AF1" t="n">
-        <v>-0.05732841004936594</v>
+        <v>-0.06712187060074816</v>
       </c>
       <c r="AG1" t="n">
-        <v>-0.062184743683370604</v>
+        <v>-0.07698993987205587</v>
       </c>
       <c r="AH1" t="n">
-        <v>-0.06937495863747731</v>
+        <v>-0.08940962912398553</v>
       </c>
       <c r="AI1" t="n">
-        <v>-0.08025227794572518</v>
+        <v>-0.09729646976811775</v>
       </c>
       <c r="AJ1" t="n">
-        <v>-0.09232239505495804</v>
+        <v>-0.09736723592861675</v>
       </c>
       <c r="AK1" t="n">
-        <v>-0.09790752064545995</v>
+        <v>-0.0954421181076274</v>
       </c>
       <c r="AL1" t="n">
-        <v>-0.09679927925418044</v>
+        <v>-0.09517460802585585</v>
       </c>
       <c r="AM1" t="n">
-        <v>-0.09517423533821696</v>
+        <v>-0.09624759117638265</v>
       </c>
       <c r="AN1" t="n">
-        <v>-0.09539035406659074</v>
+        <v>-0.09726767949475336</v>
       </c>
       <c r="AO1" t="n">
-        <v>-0.0965721324065348</v>
+        <v>-0.0975638944831802</v>
       </c>
       <c r="AP1" t="n">
-        <v>-0.09742510722833386</v>
+        <v>-0.09698776911286582</v>
       </c>
       <c r="AQ1" t="n">
-        <v>-0.09750402120853205</v>
+        <v>-0.09517036161754404</v>
       </c>
       <c r="AR1" t="n">
-        <v>-0.09664549150707161</v>
+        <v>-0.0915086520773824</v>
       </c>
       <c r="AS1" t="n">
-        <v>-0.09439786577038997</v>
+        <v>-0.08534880457516965</v>
       </c>
       <c r="AT1" t="n">
-        <v>-0.09013030356436239</v>
+        <v>-0.07615951880087471</v>
       </c>
       <c r="AU1" t="n">
         <v>-0.08320003276270674</v>
@@ -663,142 +663,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-275.65403957975883</v>
+        <v>-184.20880692497167</v>
       </c>
       <c r="B2" t="n">
-        <v>-218.51731016099086</v>
+        <v>-145.66930080304053</v>
       </c>
       <c r="C2" t="n">
-        <v>-173.02002120951215</v>
+        <v>-114.89564566112783</v>
       </c>
       <c r="D2" t="n">
-        <v>-136.7418133400045</v>
+        <v>-90.25708502196238</v>
       </c>
       <c r="E2" t="n">
-        <v>-107.75570189714519</v>
+        <v>-70.45690259876032</v>
       </c>
       <c r="F2" t="n">
-        <v>-84.52766452674099</v>
+        <v>-54.46930239418449</v>
       </c>
       <c r="G2" t="n">
-        <v>-65.8389394061611</v>
+        <v>-41.49418505025589</v>
       </c>
       <c r="H2" t="n">
-        <v>-50.72790946795038</v>
+        <v>-30.92716914851178</v>
       </c>
       <c r="I2" t="n">
-        <v>-38.44928403604506</v>
+        <v>-22.33909279860406</v>
       </c>
       <c r="J2" t="n">
-        <v>-28.44744497932508</v>
+        <v>-15.452558683107608</v>
       </c>
       <c r="K2" t="n">
-        <v>-20.336700655756363</v>
+        <v>-10.098045013078703</v>
       </c>
       <c r="L2" t="n">
-        <v>-13.874049073212793</v>
+        <v>-6.142743284364345</v>
       </c>
       <c r="M2" t="n">
-        <v>-8.907623549759725</v>
+        <v>-3.4172154578748457</v>
       </c>
       <c r="N2" t="n">
-        <v>-5.300975595723337</v>
+        <v>-1.685987850443374</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.867194467667784</v>
+        <v>-0.6783688325799385</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.356383980573236</v>
+        <v>-0.1444091909612443</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.4980978143548592</v>
+        <v>0.10780559822497543</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.05563133938496203</v>
+        <v>0.20607338123238267</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1452640681121419</v>
+        <v>0.22690134743869328</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2170078267499724</v>
+        <v>0.21253457083513225</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2253254086357189</v>
+        <v>0.18478162685047972</v>
       </c>
       <c r="V2" t="n">
-        <v>0.20583252886298004</v>
+        <v>0.15415267315153006</v>
       </c>
       <c r="W2" t="n">
-        <v>0.17659623914358213</v>
+        <v>0.12525005003761036</v>
       </c>
       <c r="X2" t="n">
-        <v>0.14613896371372045</v>
+        <v>0.09973196867295386</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.11805751363712237</v>
+        <v>0.07786473243357317</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.09352596457226212</v>
+        <v>0.059303954893903124</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07259213225884528</v>
+        <v>0.04347113234973036</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.05482314402655125</v>
+        <v>0.02972425482075549</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.03961229903009321</v>
+        <v>0.017429035155361063</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.026315103668379202</v>
+        <v>0.0059973209487939475</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.014305751843550669</v>
+        <v>-0.005025602901600754</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0030181505004103553</v>
+        <v>-0.015616255218850078</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.007927766041037216</v>
+        <v>-0.02421612832351231</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.01824154756485275</v>
+        <v>-0.026718954829719567</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.02568192593842611</v>
+        <v>-0.022106038206808377</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.025959058661266028</v>
+        <v>-0.018488512842357325</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.020676065722806513</v>
+        <v>-0.020135417217957335</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.018461111898316927</v>
+        <v>-0.024677783124774755</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.021197432278340332</v>
+        <v>-0.029772246721814544</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.02603762519874554</v>
+        <v>-0.035042122488047306</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.031143674530345423</v>
+        <v>-0.04112586325635886</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.03656704980012219</v>
+        <v>-0.04835798212169277</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.04294821678469065</v>
+        <v>-0.05669886110190204</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.05048757277510104</v>
+        <v>-0.06596387744571731</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.05910172461255969</v>
+        <v>-0.07568775330579271</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.06855151147755327</v>
+        <v>-0.08497442012122927</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.07826530349251039</v>
@@ -809,142 +809,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -968,142 +968,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>98.11048359884443</v>
+        <v>48.04715293009323</v>
       </c>
       <c r="B1" t="n">
-        <v>65.43586848727247</v>
+        <v>31.13810447003412</v>
       </c>
       <c r="C1" t="n">
-        <v>42.828675414830975</v>
+        <v>19.988337467062276</v>
       </c>
       <c r="D1" t="n">
-        <v>27.674385270997856</v>
+        <v>12.75101433632606</v>
       </c>
       <c r="E1" t="n">
-        <v>17.730377102688486</v>
+        <v>8.101135282898008</v>
       </c>
       <c r="F1" t="n">
-        <v>11.296291698922127</v>
+        <v>5.13328467132176</v>
       </c>
       <c r="G1" t="n">
-        <v>7.170995215477643</v>
+        <v>3.246976318777254</v>
       </c>
       <c r="H1" t="n">
-        <v>4.541440064951461</v>
+        <v>2.0512838219171456</v>
       </c>
       <c r="I1" t="n">
-        <v>2.8715501277511204</v>
+        <v>1.2946456952819594</v>
       </c>
       <c r="J1" t="n">
-        <v>1.813605481266869</v>
+        <v>0.8163574500508965</v>
       </c>
       <c r="K1" t="n">
-        <v>1.144360830413099</v>
+        <v>0.5142261276555576</v>
       </c>
       <c r="L1" t="n">
-        <v>0.7214064046181928</v>
+        <v>0.32345394285888235</v>
       </c>
       <c r="M1" t="n">
-        <v>0.4542651583071509</v>
+        <v>0.20302906726718706</v>
       </c>
       <c r="N1" t="n">
-        <v>0.2856008636056304</v>
+        <v>0.12702406006637246</v>
       </c>
       <c r="O1" t="n">
-        <v>0.1791373530002785</v>
+        <v>0.07905962466096009</v>
       </c>
       <c r="P1" t="n">
-        <v>0.11194626590287465</v>
+        <v>0.048793136537231316</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.06954502210180093</v>
+        <v>0.029695749798469097</v>
       </c>
       <c r="R1" t="n">
-        <v>0.0427895154612936</v>
+        <v>0.017646954333971863</v>
       </c>
       <c r="S1" t="n">
-        <v>0.02590783175726223</v>
+        <v>0.010046681487604625</v>
       </c>
       <c r="T1" t="n">
-        <v>0.015257357545692973</v>
+        <v>0.005254687435826058</v>
       </c>
       <c r="U1" t="n">
-        <v>0.008539708988460057</v>
+        <v>0.0022367587703859874</v>
       </c>
       <c r="V1" t="n">
-        <v>0.004305103354937888</v>
+        <v>3.416020042876482E-4</v>
       </c>
       <c r="W1" t="n">
-        <v>0.0016396263750030878</v>
+        <v>-8.396340767576527E-4</v>
       </c>
       <c r="X1" t="n">
-        <v>-3.1925253501044934E-5</v>
+        <v>-0.0015614511225573225</v>
       </c>
       <c r="Y1" t="n">
-        <v>-0.0010700901455290878</v>
+        <v>-0.001978641349462378</v>
       </c>
       <c r="Z1" t="n">
-        <v>-0.001698379199274395</v>
+        <v>-0.0021791561959965734</v>
       </c>
       <c r="AA1" t="n">
-        <v>-0.002051172482179485</v>
+        <v>-0.0022021087229453632</v>
       </c>
       <c r="AB1" t="n">
-        <v>-0.002202088873381955</v>
+        <v>-0.0020442928452541614</v>
       </c>
       <c r="AC1" t="n">
-        <v>-0.0021787172049527385</v>
+        <v>-0.001654973233951395</v>
       </c>
       <c r="AD1" t="n">
-        <v>-0.001966198347976172</v>
+        <v>-9.129555262536776E-4</v>
       </c>
       <c r="AE1" t="n">
-        <v>-0.001498186659636021</v>
+        <v>4.3042822727650074E-4</v>
       </c>
       <c r="AF1" t="n">
-        <v>-6.269494183305729E-4</v>
+        <v>0.0028599180644787903</v>
       </c>
       <c r="AG1" t="n">
-        <v>9.470420290245384E-4</v>
+        <v>0.006940438919105358</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.0037855080081069625</v>
+        <v>0.008286514328734994</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.008133230758856608</v>
+        <v>-0.006732919673350248</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.0056276677774099275</v>
+        <v>-0.014310779808192302</v>
       </c>
       <c r="AK1" t="n">
-        <v>-0.010171765478886085</v>
+        <v>-0.014832610770778774</v>
       </c>
       <c r="AL1" t="n">
-        <v>-0.01469937069319215</v>
+        <v>-0.016624602401231</v>
       </c>
       <c r="AM1" t="n">
-        <v>-0.014887125632425842</v>
+        <v>-0.02855581196846785</v>
       </c>
       <c r="AN1" t="n">
-        <v>-0.01856767350739821</v>
+        <v>-0.034440420041767665</v>
       </c>
       <c r="AO1" t="n">
-        <v>-0.031881293737200236</v>
+        <v>-0.033921506923011525</v>
       </c>
       <c r="AP1" t="n">
-        <v>-0.034193762749042296</v>
+        <v>-0.03571818421587857</v>
       </c>
       <c r="AQ1" t="n">
-        <v>-0.034204212734873486</v>
+        <v>-0.03786829386529728</v>
       </c>
       <c r="AR1" t="n">
-        <v>-0.03635544049453817</v>
+        <v>-0.039350428388948075</v>
       </c>
       <c r="AS1" t="n">
-        <v>-0.03831965145876892</v>
+        <v>-0.04025766310354302</v>
       </c>
       <c r="AT1" t="n">
-        <v>-0.03965866945780707</v>
+        <v>-0.04028333186003103</v>
       </c>
       <c r="AU1" t="n">
         <v>-0.04036604704324716</v>
@@ -1114,142 +1114,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-39.61818873662579</v>
+        <v>-12.678352702252788</v>
       </c>
       <c r="B2" t="n">
-        <v>-20.72491661774745</v>
+        <v>-6.339220262471296</v>
       </c>
       <c r="C2" t="n">
-        <v>-10.557117978642287</v>
+        <v>-3.0809206482841467</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.241484806527587</v>
+        <v>-1.439525392716202</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.5245542720610588</v>
+        <v>-0.6291650998746309</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.163003049574284</v>
+        <v>-0.23902625826504642</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.49481987007910244</v>
+        <v>-0.05823386289620865</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.1758476797723406</v>
+        <v>0.020015303911857768</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.030121137451311966</v>
+        <v>0.049203762936830986</v>
       </c>
       <c r="J2" t="n">
-        <v>0.031202921133140087</v>
+        <v>0.055798185702765284</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05247947721392296</v>
+        <v>0.05269791688525337</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05557933610352637</v>
+        <v>0.04604668098287424</v>
       </c>
       <c r="M2" t="n">
-        <v>0.051107024852025784</v>
+        <v>0.038658472523105204</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04407108796326673</v>
+        <v>0.03172969740790254</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03673104845946771</v>
+        <v>0.025688821156663967</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03001772274650722</v>
+        <v>0.02061401903930005</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.024236487066692264</v>
+        <v>0.016435520952412692</v>
       </c>
       <c r="R2" t="n">
-        <v>0.019411850060539325</v>
+        <v>0.013031318673092243</v>
       </c>
       <c r="S2" t="n">
-        <v>0.015453521556009639</v>
+        <v>0.010270533727430661</v>
       </c>
       <c r="T2" t="n">
-        <v>0.012234254183925205</v>
+        <v>0.008031460885829091</v>
       </c>
       <c r="U2" t="n">
-        <v>0.009624519271876126</v>
+        <v>0.006207648927898972</v>
       </c>
       <c r="V2" t="n">
-        <v>0.007506405532044386</v>
+        <v>0.004708570060393386</v>
       </c>
       <c r="W2" t="n">
-        <v>0.005777791799580897</v>
+        <v>0.003458048350964375</v>
       </c>
       <c r="X2" t="n">
-        <v>0.004352196162844382</v>
+        <v>0.002391951112500991</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.003156903950035206</v>
+        <v>0.0014558376857375746</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.00213060068517031</v>
+        <v>6.02900772830845E-4</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0012210735648580785</v>
+        <v>-2.074807267862414E-4</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.8327631429253817E-4</v>
+        <v>-0.001009713418818205</v>
       </c>
       <c r="AC2" t="n">
-        <v>-4.218515072859059E-4</v>
+        <v>-0.0018277041498002428</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.001226626309448672</v>
+        <v>-0.002657318005030952</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.002050133312624279</v>
+        <v>-0.003402745027044313</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.0028734806523773035</v>
+        <v>-0.0036256665427889636</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.003549011916303457</v>
+        <v>-0.0014669769858594087</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.0034305496073312298</v>
+        <v>0.00839625253415835</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.7188133705402277E-4</v>
+        <v>0.01293042392421816</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.011816926298141489</v>
+        <v>0.0018398337964976943</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.010338380401149096</v>
+        <v>-0.008490666931008181</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.0010499077616698072</v>
+        <v>-0.019908592092177685</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.011286424025826188</v>
+        <v>-0.028030327097928256</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.023265895653850736</v>
+        <v>-0.022970681164124082</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.026932126866447546</v>
+        <v>-0.024076592331564638</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.02263011916283678</v>
+        <v>-0.027509637272352196</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.025002830214857663</v>
+        <v>-0.030493453693730972</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.02832710541430656</v>
+        <v>-0.03391946878706456</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.031341038050976766</v>
+        <v>-0.03798484583784092</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.03495106743637746</v>
+        <v>-0.04261096187425904</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.039170380186537485</v>
@@ -1260,142 +1260,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -1419,142 +1419,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>17.28161009481348</v>
+        <v>17.422987207464942</v>
       </c>
       <c r="B1" t="n">
-        <v>17.349213345744438</v>
+        <v>17.57474842707535</v>
       </c>
       <c r="C1" t="n">
-        <v>17.456921943812752</v>
+        <v>17.81805220438519</v>
       </c>
       <c r="D1" t="n">
-        <v>17.629045847988415</v>
+        <v>18.21061431744686</v>
       </c>
       <c r="E1" t="n">
-        <v>17.905396898658427</v>
+        <v>18.850062230898565</v>
       </c>
       <c r="F1" t="n">
-        <v>18.35226304683426</v>
+        <v>19.905666918063783</v>
       </c>
       <c r="G1" t="n">
-        <v>19.08249686537506</v>
+        <v>21.675518478990057</v>
       </c>
       <c r="H1" t="n">
-        <v>20.292980360520087</v>
+        <v>24.654353823012958</v>
       </c>
       <c r="I1" t="n">
-        <v>22.329450535034805</v>
+        <v>29.252871152829066</v>
       </c>
       <c r="J1" t="n">
-        <v>25.7322721288507</v>
+        <v>32.44044423592434</v>
       </c>
       <c r="K1" t="n">
-        <v>30.596039720605408</v>
+        <v>22.16108532274494</v>
       </c>
       <c r="L1" t="n">
-        <v>31.43777550384368</v>
+        <v>7.626397640744914</v>
       </c>
       <c r="M1" t="n">
-        <v>17.565283401810923</v>
+        <v>1.9275744292088837</v>
       </c>
       <c r="N1" t="n">
-        <v>5.378581563997473</v>
+        <v>0.35444060015004103</v>
       </c>
       <c r="O1" t="n">
-        <v>1.2856164181850585</v>
+        <v>-0.03820961798705616</v>
       </c>
       <c r="P1" t="n">
-        <v>0.1888999353367575</v>
+        <v>-0.10963079897416339</v>
       </c>
       <c r="Q1" t="n">
-        <v>-0.0735505595979187</v>
+        <v>-0.09864363293473861</v>
       </c>
       <c r="R1" t="n">
-        <v>-0.11044635603667913</v>
+        <v>-0.07257220862606496</v>
       </c>
       <c r="S1" t="n">
-        <v>-0.09195094562080748</v>
+        <v>-0.04923641334127111</v>
       </c>
       <c r="T1" t="n">
-        <v>-0.06578853131674563</v>
+        <v>-0.031945431225564494</v>
       </c>
       <c r="U1" t="n">
-        <v>-0.04400946722652899</v>
+        <v>-0.020056012649598238</v>
       </c>
       <c r="V1" t="n">
-        <v>-0.02828814511702344</v>
+        <v>-0.012175176220540344</v>
       </c>
       <c r="W1" t="n">
-        <v>-0.017609780227225376</v>
+        <v>-0.007055148312111656</v>
       </c>
       <c r="X1" t="n">
-        <v>-0.01057775648904842</v>
+        <v>-0.003767810001947867</v>
       </c>
       <c r="Y1" t="n">
-        <v>-0.006026319475876586</v>
+        <v>-0.0016731920728295796</v>
       </c>
       <c r="Z1" t="n">
-        <v>-0.003110852918039008</v>
+        <v>-3.466016535553304E-4</v>
       </c>
       <c r="AA1" t="n">
-        <v>-0.0012562954074654322</v>
+        <v>4.8758528202691193E-4</v>
       </c>
       <c r="AB1" t="n">
-        <v>-8.370548777632854E-5</v>
+        <v>0.0010054717898577879</v>
       </c>
       <c r="AC1" t="n">
-        <v>6.517304073124551E-4</v>
+        <v>0.0013178180971928797</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.001105820085618405</v>
+        <v>0.0014924962061426252</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.0013760393503278847</v>
+        <v>0.0015684967559144653</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.001521440502989459</v>
+        <v>0.0015639455676995468</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.0015748380581479585</v>
+        <v>0.0014809900142687643</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.0015496144291981431</v>
+        <v>0.0013195113642351542</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.0014448582502931619</v>
+        <v>0.0011956840099262823</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.0012691106627774028</v>
+        <v>0.0022499302810198665</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.001254378833576891</v>
+        <v>0.005514605322961074</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.0031098911526161077</v>
+        <v>0.0058044809809168</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.005848147153941613</v>
+        <v>0.005632016900132964</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.0057095097539724355</v>
+        <v>0.006163529817454591</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.005700510812080397</v>
+        <v>0.0071710537321738295</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.006412138178119463</v>
+        <v>0.008201192773708108</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.007449115002142309</v>
+        <v>0.009346491228262997</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.008487273165335651</v>
+        <v>0.01073828512061584</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.009693833742424555</v>
+        <v>0.012417097060207449</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.011156766763960005</v>
+        <v>0.014473237573464966</v>
       </c>
       <c r="AU1" t="n">
         <v>0.012926126626194478</v>
@@ -1565,142 +1565,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-277.10983521468313</v>
+        <v>-186.36618796258153</v>
       </c>
       <c r="B2" t="n">
-        <v>-220.34523055475665</v>
+        <v>-148.3691008703691</v>
       </c>
       <c r="C2" t="n">
-        <v>-175.31155502569783</v>
+        <v>-118.26167516196833</v>
       </c>
       <c r="D2" t="n">
-        <v>-139.60714308048495</v>
+        <v>-94.42742712125703</v>
       </c>
       <c r="E2" t="n">
-        <v>-111.32322013061135</v>
+        <v>-75.5669226214933</v>
       </c>
       <c r="F2" t="n">
-        <v>-88.93722259555344</v>
+        <v>-60.60185766117153</v>
       </c>
       <c r="G2" t="n">
-        <v>-71.21893868745404</v>
+        <v>-48.53789856168994</v>
       </c>
       <c r="H2" t="n">
-        <v>-57.129542201385625</v>
+        <v>-38.15054095339719</v>
       </c>
       <c r="I2" t="n">
-        <v>-45.657581167951086</v>
+        <v>-27.069446220840987</v>
       </c>
       <c r="J2" t="n">
-        <v>-35.403162690086226</v>
+        <v>-10.548692501669672</v>
       </c>
       <c r="K2" t="n">
-        <v>-23.398689479913056</v>
+        <v>7.1134698571332216</v>
       </c>
       <c r="L2" t="n">
-        <v>-5.04159094076751</v>
+        <v>8.74258038892989</v>
       </c>
       <c r="M2" t="n">
-        <v>9.061147110008367</v>
+        <v>4.902184778510122</v>
       </c>
       <c r="N2" t="n">
-        <v>7.713346194346922</v>
+        <v>2.408322111719481</v>
       </c>
       <c r="O2" t="n">
-        <v>4.073053403220108</v>
+        <v>1.1584868946084528</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9811436224981633</v>
+        <v>0.5548328601322426</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9515980054272029</v>
+        <v>0.2635336726931393</v>
       </c>
       <c r="R2" t="n">
-        <v>0.45508732419593906</v>
+        <v>0.12266775902453853</v>
       </c>
       <c r="S2" t="n">
-        <v>0.21530837117106372</v>
+        <v>0.054727162249157336</v>
       </c>
       <c r="T2" t="n">
-        <v>0.09936619984415389</v>
+        <v>0.02231300834806103</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04355564729420995</v>
+        <v>0.007215677087501692</v>
       </c>
       <c r="V2" t="n">
-        <v>0.017057432203354882</v>
+        <v>5.166239710179764E-4</v>
       </c>
       <c r="W2" t="n">
-        <v>0.004836417682664123</v>
+        <v>-0.0021604803578948945</v>
       </c>
       <c r="X2" t="n">
-        <v>-4.7788477729639476E-4</v>
+        <v>-0.0029575778033843255</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.0025013847073844064</v>
+        <v>-0.0029142335992264293</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.0030010381212690015</v>
+        <v>-0.0025260981816848044</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.0028313230166328415</v>
+        <v>-0.002021111358005687</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.002396692713938844</v>
+        <v>-0.001495961343463114</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0018803214554613465</v>
+        <v>-9.830198659824423E-4</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.0013569901406938504</v>
+        <v>-4.8237139338197174E-4</v>
       </c>
       <c r="AE2" t="n">
-        <v>-8.48240734339559E-4</v>
+        <v>2.44292404005115E-5</v>
       </c>
       <c r="AF2" t="n">
-        <v>-3.4838540999453056E-4</v>
+        <v>5.722901299670694E-4</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.6518293777173306E-4</v>
+        <v>0.0012240689621502347</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.329543315373039E-4</v>
+        <v>0.0021137609254484953</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.001430368110901743</v>
+        <v>0.0035806379372740715</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0024273414241362977</v>
+        <v>0.006074928975297262</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.004153986863370222</v>
+        <v>0.006218711742262963</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.006621773293344964</v>
+        <v>0.00507044816016337</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.005725538317303918</v>
+        <v>0.005636074310576623</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.005102325597100564</v>
+        <v>0.0067936866077812404</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.005928262717967295</v>
+        <v>0.00781661566263933</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.007093397983397367</v>
+        <v>0.00877761902471636</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.00806291916600787</v>
+        <v>0.009927047581506226</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.009066431650333192</v>
+        <v>0.011223913969408186</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.010262059059673883</v>
+        <v>0.012650181827323626</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.01159284539556296</v>
+        <v>0.01419503460623637</v>
       </c>
       <c r="AU2" t="n">
         <v>0.013053665294551767</v>
@@ -1711,142 +1711,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>

--- a/lin_R1_by_R2 (1 by 100)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 100)1000.xlsx
@@ -358,142 +358,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -809,142 +809,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -1260,142 +1260,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -1711,142 +1711,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>

--- a/lin_R1_by_R2 (1 by 100)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 100)1000.xlsx
@@ -66,440 +66,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>17.125641860235604</v>
+        <v>17.152684620659908</v>
       </c>
       <c r="B1" t="n">
-        <v>17.10176976415322</v>
+        <v>17.144520927105017</v>
       </c>
       <c r="C1" t="n">
-        <v>17.064119533097056</v>
+        <v>17.131603919292868</v>
       </c>
       <c r="D1" t="n">
-        <v>17.004906881905523</v>
+        <v>17.111185854685438</v>
       </c>
       <c r="E1" t="n">
-        <v>16.912196445907423</v>
+        <v>17.078960367078718</v>
       </c>
       <c r="F1" t="n">
-        <v>16.76804413931594</v>
+        <v>17.028222621608514</v>
       </c>
       <c r="G1" t="n">
-        <v>16.546311775732608</v>
+        <v>16.94864223817853</v>
       </c>
       <c r="H1" t="n">
-        <v>16.210838773667845</v>
+        <v>16.82456676775319</v>
       </c>
       <c r="I1" t="n">
-        <v>15.715744302715876</v>
+        <v>16.63290791480191</v>
       </c>
       <c r="J1" t="n">
-        <v>15.011182123154475</v>
+        <v>16.341059686120474</v>
       </c>
       <c r="K1" t="n">
-        <v>14.05851622634936</v>
+        <v>15.906179085204982</v>
       </c>
       <c r="L1" t="n">
-        <v>12.855038799836006</v>
+        <v>15.278613175639494</v>
       </c>
       <c r="M1" t="n">
-        <v>11.457010001838961</v>
+        <v>14.41349906670481</v>
       </c>
       <c r="N1" t="n">
-        <v>9.978649290600014</v>
+        <v>13.292763271686281</v>
       </c>
       <c r="O1" t="n">
-        <v>8.554589460071313</v>
+        <v>11.950903911210142</v>
       </c>
       <c r="P1" t="n">
-        <v>7.286824743202563</v>
+        <v>10.484769883443784</v>
       </c>
       <c r="Q1" t="n">
-        <v>6.215042468110179</v>
+        <v>9.028022540376217</v>
       </c>
       <c r="R1" t="n">
-        <v>5.32551440896603</v>
+        <v>7.699032784822791</v>
       </c>
       <c r="S1" t="n">
-        <v>4.580996840764765</v>
+        <v>6.559614035179046</v>
       </c>
       <c r="T1" t="n">
-        <v>3.94678411337578</v>
+        <v>5.61142576803066</v>
       </c>
       <c r="U1" t="n">
-        <v>3.4006992052094422</v>
+        <v>4.82172345676723</v>
       </c>
       <c r="V1" t="n">
-        <v>2.9299239006375575</v>
+        <v>4.152931840226005</v>
       </c>
       <c r="W1" t="n">
-        <v>2.5248728126620947</v>
+        <v>3.5784742503386147</v>
       </c>
       <c r="X1" t="n">
-        <v>2.176625152675555</v>
+        <v>3.083084939182072</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.8771207005208743</v>
+        <v>2.65658307720296</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.6194554509974342</v>
+        <v>2.2898695636674935</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.3977352269927255</v>
+        <v>1.974527798382328</v>
       </c>
       <c r="AB1" t="n">
-        <v>1.2068991487251404</v>
+        <v>1.70326184584892</v>
       </c>
       <c r="AC1" t="n">
-        <v>1.042601610390044</v>
+        <v>1.4698560265765879</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.9011118767912464</v>
+        <v>1.2689794505803245</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.7792267357024912</v>
+        <v>1.096053747911587</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.6741956798526054</v>
+        <v>0.947148397104826</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.5836567172591791</v>
+        <v>0.818888762664683</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.5055812982714355</v>
+        <v>0.7083772228146132</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.4382270639519053</v>
+        <v>0.6131255289873118</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.3800973038998746</v>
+        <v>0.5309967702788657</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.3299061698163387</v>
+        <v>0.460155580531563</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.2865488267427852</v>
+        <v>0.39902541610219605</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.24907584024569918</v>
+        <v>0.3462518992432931</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.2166711976080104</v>
+        <v>0.30067136496035507</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.18863344668260754</v>
+        <v>0.2612838718172296</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.16435950948122563</v>
+        <v>0.22723004232834007</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.14333079054680675</v>
+        <v>0.19777118878257435</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.12510125417468196</v>
+        <v>0.172272257717795</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.10928719088206316</v>
+        <v>0.15018719263285293</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.09555843326948252</v>
+        <v>0.13104637145160447</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.10541906616667047</v>
+        <v>0.11444582408386746</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.09219872322257332</v>
+        <v>0.10003797731353592</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.08752371017232392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-186.37566490516804</v>
+        <v>-318.7458672174226</v>
       </c>
       <c r="B2" t="n">
-        <v>-148.38836442295295</v>
+        <v>-253.39105691513512</v>
       </c>
       <c r="C2" t="n">
-        <v>-118.30125081768338</v>
+        <v>-201.5298364032487</v>
       </c>
       <c r="D2" t="n">
-        <v>-94.51008974505889</v>
+        <v>-160.40000321744714</v>
       </c>
       <c r="E2" t="n">
-        <v>-75.74403542345414</v>
+        <v>-127.81044472632053</v>
       </c>
       <c r="F2" t="n">
-        <v>-60.99623888828705</v>
+        <v>-102.02407187967479</v>
       </c>
       <c r="G2" t="n">
-        <v>-49.46714602824271</v>
+        <v>-81.66457744612859</v>
       </c>
       <c r="H2" t="n">
-        <v>-40.51672185472038</v>
+        <v>-65.64175376798305</v>
       </c>
       <c r="I2" t="n">
-        <v>-33.622540114494846</v>
+        <v>-53.09089802068835</v>
       </c>
       <c r="J2" t="n">
-        <v>-28.34246545434795</v>
+        <v>-43.32237463004785</v>
       </c>
       <c r="K2" t="n">
-        <v>-24.284709229860045</v>
+        <v>-35.77796843022611</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.09379488819254</v>
+        <v>-29.99194423381366</v>
       </c>
       <c r="M2" t="n">
-        <v>-18.462024364012052</v>
+        <v>-25.557908561356054</v>
       </c>
       <c r="N2" t="n">
-        <v>-16.162047963719207</v>
+        <v>-22.10808579272259</v>
       </c>
       <c r="O2" t="n">
-        <v>-14.072194299078005</v>
+        <v>-19.315464615104776</v>
       </c>
       <c r="P2" t="n">
-        <v>-12.164119354601977</v>
+        <v>-16.92120460146745</v>
       </c>
       <c r="Q2" t="n">
-        <v>-10.456225899286181</v>
+        <v>-14.766617548126357</v>
       </c>
       <c r="R2" t="n">
-        <v>-8.966295081960928</v>
+        <v>-12.795508170936015</v>
       </c>
       <c r="S2" t="n">
-        <v>-7.689237525658229</v>
+        <v>-11.016352563838598</v>
       </c>
       <c r="T2" t="n">
-        <v>-6.600376513519175</v>
+        <v>-9.451161642303173</v>
       </c>
       <c r="U2" t="n">
-        <v>-5.669448055948969</v>
+        <v>-8.103349506042475</v>
       </c>
       <c r="V2" t="n">
-        <v>-4.870760956424005</v>
+        <v>-6.953539200050291</v>
       </c>
       <c r="W2" t="n">
-        <v>-4.184815383409297</v>
+        <v>-5.971824384424797</v>
       </c>
       <c r="X2" t="n">
-        <v>-3.595852790949333</v>
+        <v>-5.130372019153177</v>
       </c>
       <c r="Y2" t="n">
-        <v>-3.0902291702716425</v>
+        <v>-4.407774296168681</v>
       </c>
       <c r="Z2" t="n">
-        <v>-2.656112798381044</v>
+        <v>-3.7872689693639052</v>
       </c>
       <c r="AA2" t="n">
-        <v>-2.2833551949516937</v>
+        <v>-3.254562516006648</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.963256089456697</v>
+        <v>-2.79721067767041</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.6883505151988005</v>
+        <v>-2.4045135333911234</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.4522336107857632</v>
+        <v>-2.0673019256121545</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.2494100146103686</v>
+        <v>-1.7777095421935258</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.075164568173367</v>
+        <v>-1.5289870278144926</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.9254514244664028</v>
+        <v>-1.3153435082891287</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.7967989258374757</v>
+        <v>-1.131810317677297</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.6862280090548705</v>
+        <v>-0.974124132067113</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.5911822132311954</v>
+        <v>-0.8386267235241499</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.5094676401032164</v>
+        <v>-0.7221789700485997</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.4392014509892098</v>
+        <v>-0.6220870936132152</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.3787676861598055</v>
+        <v>-0.5360393868174544</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.32677936511348954</v>
+        <v>-0.4620519361829556</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.2820459744221666</v>
+        <v>-0.39842206238580363</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.24354557690317513</v>
+        <v>-0.34368837978766964</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.21040088488189523</v>
+        <v>-0.29659653378860873</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.18185873380668996</v>
+        <v>-0.2560698084653342</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.1572724726723193</v>
+        <v>-0.22118391184186886</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.13608685649206698</v>
+        <v>-0.19114534467639668</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.15128715208302224</v>
+        <v>-0.16527284316481608</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.1309282398962621</v>
+        <v>-0.14298145845286275</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.12376889802579209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -517,440 +526,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>17.048643733429532</v>
+        <v>17.126345875728635</v>
       </c>
       <c r="B1" t="n">
-        <v>16.980359671655705</v>
+        <v>17.1028499057339</v>
       </c>
       <c r="C1" t="n">
-        <v>16.873246491105988</v>
+        <v>17.065742646548227</v>
       </c>
       <c r="D1" t="n">
-        <v>16.70621533479146</v>
+        <v>17.00725923794317</v>
       </c>
       <c r="E1" t="n">
-        <v>16.448136377580514</v>
+        <v>16.915383269445776</v>
       </c>
       <c r="F1" t="n">
-        <v>16.054999700842842</v>
+        <v>16.771779212271177</v>
       </c>
       <c r="G1" t="n">
-        <v>15.468889725703901</v>
+        <v>16.549094318139613</v>
       </c>
       <c r="H1" t="n">
-        <v>14.622559609444036</v>
+        <v>16.20798712126178</v>
       </c>
       <c r="I1" t="n">
-        <v>13.455199737529224</v>
+        <v>15.695170350975463</v>
       </c>
       <c r="J1" t="n">
-        <v>11.942825147448302</v>
+        <v>14.945501119569938</v>
       </c>
       <c r="K1" t="n">
-        <v>10.134912404861128</v>
+        <v>13.893277134491026</v>
       </c>
       <c r="L1" t="n">
-        <v>8.170428777621021</v>
+        <v>12.497726592970732</v>
       </c>
       <c r="M1" t="n">
-        <v>6.245289481240417</v>
+        <v>10.779631537676037</v>
       </c>
       <c r="N1" t="n">
-        <v>4.540490699593307</v>
+        <v>8.848241371023136</v>
       </c>
       <c r="O1" t="n">
-        <v>3.1610673607202764</v>
+        <v>6.886895553725651</v>
       </c>
       <c r="P1" t="n">
-        <v>2.124143664322907</v>
+        <v>5.090304532352018</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.3870146849385643</v>
+        <v>3.5935697880577386</v>
       </c>
       <c r="R1" t="n">
-        <v>0.8835574863418795</v>
+        <v>2.442102970832901</v>
       </c>
       <c r="S1" t="n">
-        <v>0.549023186597532</v>
+        <v>1.6093668523354059</v>
       </c>
       <c r="T1" t="n">
-        <v>0.33077291751714927</v>
+        <v>1.0336866042239359</v>
       </c>
       <c r="U1" t="n">
-        <v>0.1900793527042029</v>
+        <v>0.6480072940825858</v>
       </c>
       <c r="V1" t="n">
-        <v>0.10007118264558411</v>
+        <v>0.3950200622891725</v>
       </c>
       <c r="W1" t="n">
-        <v>0.04275473568168759</v>
+        <v>0.2313591525653943</v>
       </c>
       <c r="X1" t="n">
-        <v>0.006340018982391608</v>
+        <v>0.12642528256208538</v>
       </c>
       <c r="Y1" t="n">
-        <v>-0.016799542811717118</v>
+        <v>0.05951720815098182</v>
       </c>
       <c r="Z1" t="n">
-        <v>-0.03156713805469712</v>
+        <v>0.016985838552495088</v>
       </c>
       <c r="AA1" t="n">
-        <v>-0.0411192867315474</v>
+        <v>-0.01002966686446755</v>
       </c>
       <c r="AB1" t="n">
-        <v>-0.04751929978425823</v>
+        <v>-0.027233852128449147</v>
       </c>
       <c r="AC1" t="n">
-        <v>-0.052183840083372686</v>
+        <v>-0.03829353012660979</v>
       </c>
       <c r="AD1" t="n">
-        <v>-0.05621838190992281</v>
+        <v>-0.04558740921607048</v>
       </c>
       <c r="AE1" t="n">
-        <v>-0.06072647653568146</v>
+        <v>-0.0507118385000969</v>
       </c>
       <c r="AF1" t="n">
-        <v>-0.06712187060074816</v>
+        <v>-0.054844263340640145</v>
       </c>
       <c r="AG1" t="n">
-        <v>-0.07698993987205587</v>
+        <v>-0.05905278751590726</v>
       </c>
       <c r="AH1" t="n">
-        <v>-0.08940962912398553</v>
+        <v>-0.06461603326727298</v>
       </c>
       <c r="AI1" t="n">
-        <v>-0.09729646976811775</v>
+        <v>-0.07316784120343478</v>
       </c>
       <c r="AJ1" t="n">
-        <v>-0.09736723592861675</v>
+        <v>-0.0852112342048459</v>
       </c>
       <c r="AK1" t="n">
-        <v>-0.0954421181076274</v>
+        <v>-0.09558716615017426</v>
       </c>
       <c r="AL1" t="n">
-        <v>-0.09517460802585585</v>
+        <v>-0.09790662742160408</v>
       </c>
       <c r="AM1" t="n">
-        <v>-0.09624759117638265</v>
+        <v>-0.09598744217878659</v>
       </c>
       <c r="AN1" t="n">
-        <v>-0.09726767949475336</v>
+        <v>-0.09505004310069755</v>
       </c>
       <c r="AO1" t="n">
-        <v>-0.0975638944831802</v>
+        <v>-0.09582227044730496</v>
       </c>
       <c r="AP1" t="n">
-        <v>-0.09698776911286582</v>
+        <v>-0.09698699437952174</v>
       </c>
       <c r="AQ1" t="n">
-        <v>-0.09517036161754404</v>
+        <v>-0.09755280040026174</v>
       </c>
       <c r="AR1" t="n">
-        <v>-0.0915086520773824</v>
+        <v>-0.09729874303219768</v>
       </c>
       <c r="AS1" t="n">
-        <v>-0.08534880457516965</v>
+        <v>-0.09596677939167018</v>
       </c>
       <c r="AT1" t="n">
-        <v>-0.07615951880087471</v>
+        <v>-0.0930096121717198</v>
       </c>
       <c r="AU1" t="n">
-        <v>-0.08320003276270674</v>
+        <v>-0.0877752010232703</v>
       </c>
       <c r="AV1" t="n">
-        <v>-0.07315600387413951</v>
+        <v>-0.07966274608230178</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>-0.06838365157964678</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-184.20880692497167</v>
+        <v>-317.47755457909585</v>
       </c>
       <c r="B2" t="n">
-        <v>-145.66930080304053</v>
+        <v>-251.79611948630793</v>
       </c>
       <c r="C2" t="n">
-        <v>-114.89564566112783</v>
+        <v>-199.52545667799515</v>
       </c>
       <c r="D2" t="n">
-        <v>-90.25708502196238</v>
+        <v>-157.88364173390653</v>
       </c>
       <c r="E2" t="n">
-        <v>-70.45690259876032</v>
+        <v>-124.65639593116165</v>
       </c>
       <c r="F2" t="n">
-        <v>-54.46930239418449</v>
+        <v>-98.08067590643027</v>
       </c>
       <c r="G2" t="n">
-        <v>-41.49418505025589</v>
+        <v>-76.75358083835168</v>
       </c>
       <c r="H2" t="n">
-        <v>-30.92716914851178</v>
+        <v>-59.562597423283464</v>
       </c>
       <c r="I2" t="n">
-        <v>-22.33909279860406</v>
+        <v>-45.63449875567746</v>
       </c>
       <c r="J2" t="n">
-        <v>-15.452558683107608</v>
+        <v>-34.30056430518662</v>
       </c>
       <c r="K2" t="n">
-        <v>-10.098045013078703</v>
+        <v>-25.073844770972208</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.142743284364345</v>
+        <v>-17.628592402569268</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.4172154578748457</v>
+        <v>-11.765172218255126</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.685987850443374</v>
+        <v>-7.347292470283778</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.6783688325799385</v>
+        <v>-4.224436655156495</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1444091909612443</v>
+        <v>-2.182967752170804</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.10780559822497543</v>
+        <v>-0.9581152714438448</v>
       </c>
       <c r="R2" t="n">
-        <v>0.20607338123238267</v>
+        <v>-0.28707241368209035</v>
       </c>
       <c r="S2" t="n">
-        <v>0.22690134743869328</v>
+        <v>0.044058095476214705</v>
       </c>
       <c r="T2" t="n">
-        <v>0.21253457083513225</v>
+        <v>0.1841524334714596</v>
       </c>
       <c r="U2" t="n">
-        <v>0.18478162685047972</v>
+        <v>0.2253236280821925</v>
       </c>
       <c r="V2" t="n">
-        <v>0.15415267315153006</v>
+        <v>0.21974648171345465</v>
       </c>
       <c r="W2" t="n">
-        <v>0.12525005003761036</v>
+        <v>0.19496371690855568</v>
       </c>
       <c r="X2" t="n">
-        <v>0.09973196867295386</v>
+        <v>0.16458350901051494</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.07786473243357317</v>
+        <v>0.13479835295834336</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.059303954893903124</v>
+        <v>0.10804442641492573</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.04347113234973036</v>
+        <v>0.08494719751143653</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02972425482075549</v>
+        <v>0.06531380225587732</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.017429035155361063</v>
+        <v>0.04861911340821995</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0059973209487939475</v>
+        <v>0.03423140684807975</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.005025602901600754</v>
+        <v>0.021509037609778115</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.015616255218850078</v>
+        <v>0.009843113681594363</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.02421612832351231</v>
+        <v>-0.0012855577711334547</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.026718954829719567</v>
+        <v>-0.012088827394351503</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.022106038206808377</v>
+        <v>-0.02171104531918329</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.018488512842357325</v>
+        <v>-0.026818737225822495</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.020135417217957335</v>
+        <v>-0.02407137736757249</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.024677783124774755</v>
+        <v>-0.01913322718681846</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.029772246721814544</v>
+        <v>-0.019082132215587858</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.035042122488047306</v>
+        <v>-0.022983963992316628</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.04112586325635886</v>
+        <v>-0.02802888364310427</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.04835798212169277</v>
+        <v>-0.03318198196725171</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.05669886110190204</v>
+        <v>-0.03892081728291082</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.06596387744571731</v>
+        <v>-0.04575433252832122</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.07568775330579271</v>
+        <v>-0.05372906648474306</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.08497442012122927</v>
+        <v>-0.06271179859398335</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.07826530349251039</v>
+        <v>-0.07235630952378018</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.08722585045417892</v>
+        <v>-0.08192182907436936</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.09022486269434563</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -968,440 +986,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>48.04715293009323</v>
+        <v>124.03685753192752</v>
       </c>
       <c r="B1" t="n">
-        <v>31.13810447003412</v>
+        <v>83.9949322533936</v>
       </c>
       <c r="C1" t="n">
-        <v>19.988337467062276</v>
+        <v>55.5648926320947</v>
       </c>
       <c r="D1" t="n">
-        <v>12.75101433632606</v>
+        <v>36.16401746069279</v>
       </c>
       <c r="E1" t="n">
-        <v>8.101135282898008</v>
+        <v>23.280293327268904</v>
       </c>
       <c r="F1" t="n">
-        <v>5.13328467132176</v>
+        <v>14.878465101520316</v>
       </c>
       <c r="G1" t="n">
-        <v>3.246976318777254</v>
+        <v>9.464117106300746</v>
       </c>
       <c r="H1" t="n">
-        <v>2.0512838219171456</v>
+        <v>6.001645066178796</v>
       </c>
       <c r="I1" t="n">
-        <v>1.2946456952819594</v>
+        <v>3.798249546622409</v>
       </c>
       <c r="J1" t="n">
-        <v>0.8163574500508965</v>
+        <v>2.400467425116238</v>
       </c>
       <c r="K1" t="n">
-        <v>0.5142261276555576</v>
+        <v>1.5155071433566587</v>
       </c>
       <c r="L1" t="n">
-        <v>0.32345394285888235</v>
+        <v>0.9559278129875503</v>
       </c>
       <c r="M1" t="n">
-        <v>0.20302906726718706</v>
+        <v>0.6023752953983911</v>
       </c>
       <c r="N1" t="n">
-        <v>0.12702406006637246</v>
+        <v>0.3791066485252616</v>
       </c>
       <c r="O1" t="n">
-        <v>0.07905962466096009</v>
+        <v>0.23815719110983752</v>
       </c>
       <c r="P1" t="n">
-        <v>0.048793136537231316</v>
+        <v>0.14919377537029455</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.029695749798469097</v>
+        <v>0.09304980316155806</v>
       </c>
       <c r="R1" t="n">
-        <v>0.017646954333971863</v>
+        <v>0.05762098772358261</v>
       </c>
       <c r="S1" t="n">
-        <v>0.010046681487604625</v>
+        <v>0.035265743167719965</v>
       </c>
       <c r="T1" t="n">
-        <v>0.005254687435826058</v>
+        <v>0.02116096616694241</v>
       </c>
       <c r="U1" t="n">
-        <v>0.0022367587703859874</v>
+        <v>0.012263047748180057</v>
       </c>
       <c r="V1" t="n">
-        <v>3.416020042876482E-4</v>
+        <v>0.0066517406518590535</v>
       </c>
       <c r="W1" t="n">
-        <v>-8.396340767576527E-4</v>
+        <v>0.003116011918937202</v>
       </c>
       <c r="X1" t="n">
-        <v>-0.0015614511225573225</v>
+        <v>8.927939501315865E-4</v>
       </c>
       <c r="Y1" t="n">
-        <v>-0.001978641349462378</v>
+        <v>-4.97621462815132E-4</v>
       </c>
       <c r="Z1" t="n">
-        <v>-0.0021791561959965734</v>
+        <v>-0.0013549970131491822</v>
       </c>
       <c r="AA1" t="n">
-        <v>-0.0022021087229453632</v>
+        <v>-0.0018636169768075626</v>
       </c>
       <c r="AB1" t="n">
-        <v>-0.0020442928452541614</v>
+        <v>-0.0021316225540077877</v>
       </c>
       <c r="AC1" t="n">
-        <v>-0.001654973233951395</v>
+        <v>-0.002213553860643754</v>
       </c>
       <c r="AD1" t="n">
-        <v>-9.129555262536776E-4</v>
+        <v>-0.002120621126055127</v>
       </c>
       <c r="AE1" t="n">
-        <v>4.3042822727650074E-4</v>
+        <v>-0.0018198184096784174</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.0028599180644787903</v>
+        <v>-0.0012182567491648214</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.006940438919105358</v>
+        <v>-1.2047768451575695E-4</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.008286514328734994</v>
+        <v>0.0018637566029518614</v>
       </c>
       <c r="AI1" t="n">
-        <v>-0.006732919673350248</v>
+        <v>0.0053738409649161595</v>
       </c>
       <c r="AJ1" t="n">
-        <v>-0.014310779808192302</v>
+        <v>0.00918531767956989</v>
       </c>
       <c r="AK1" t="n">
-        <v>-0.014832610770778774</v>
+        <v>-8.595284135116877E-4</v>
       </c>
       <c r="AL1" t="n">
-        <v>-0.016624602401231</v>
+        <v>-0.013132415613811902</v>
       </c>
       <c r="AM1" t="n">
-        <v>-0.02855581196846785</v>
+        <v>-0.014843645791418775</v>
       </c>
       <c r="AN1" t="n">
-        <v>-0.034440420041767665</v>
+        <v>-0.015365068466729961</v>
       </c>
       <c r="AO1" t="n">
-        <v>-0.033921506923011525</v>
+        <v>-0.023337275527104944</v>
       </c>
       <c r="AP1" t="n">
-        <v>-0.03571818421587857</v>
+        <v>-0.03420491418412992</v>
       </c>
       <c r="AQ1" t="n">
-        <v>-0.03786829386529728</v>
+        <v>-0.03387619876826432</v>
       </c>
       <c r="AR1" t="n">
-        <v>-0.039350428388948075</v>
+        <v>-0.03492422769354756</v>
       </c>
       <c r="AS1" t="n">
-        <v>-0.04025766310354302</v>
+        <v>-0.037214694424811505</v>
       </c>
       <c r="AT1" t="n">
-        <v>-0.04028333186003103</v>
+        <v>-0.03890233672097798</v>
       </c>
       <c r="AU1" t="n">
-        <v>-0.04036604704324716</v>
+        <v>-0.04002791172909204</v>
       </c>
       <c r="AV1" t="n">
-        <v>-0.040093774690396246</v>
+        <v>-0.04039630348057663</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>-0.039641954931607964</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-12.678352702252788</v>
+        <v>-57.94195677467603</v>
       </c>
       <c r="B2" t="n">
-        <v>-6.339220262471296</v>
+        <v>-30.872283618697324</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.0809206482841467</v>
+        <v>-15.9769601014258</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.439525392716202</v>
+        <v>-8.058670931467505</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.6291650998746309</v>
+        <v>-3.957717241412256</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.23902625826504642</v>
+        <v>-1.8779813417529638</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.05823386289620865</v>
+        <v>-0.8438201668050784</v>
       </c>
       <c r="H2" t="n">
-        <v>0.020015303911857768</v>
+        <v>-0.3411512023194102</v>
       </c>
       <c r="I2" t="n">
-        <v>0.049203762936830986</v>
+        <v>-0.10462611126281121</v>
       </c>
       <c r="J2" t="n">
-        <v>0.055798185702765284</v>
+        <v>7.167722605216124E-4</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05269791688525337</v>
+        <v>0.04271848206612593</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04604668098287424</v>
+        <v>0.05509478006975054</v>
       </c>
       <c r="M2" t="n">
-        <v>0.038658472523105204</v>
+        <v>0.05437401450100976</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03172969740790254</v>
+        <v>0.04850065353146622</v>
       </c>
       <c r="O2" t="n">
-        <v>0.025688821156663967</v>
+        <v>0.04117214604380525</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02061401903930005</v>
+        <v>0.03401105225184846</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.016435520952412692</v>
+        <v>0.027645759531313988</v>
       </c>
       <c r="R2" t="n">
-        <v>0.013031318673092243</v>
+        <v>0.022243661321621113</v>
       </c>
       <c r="S2" t="n">
-        <v>0.010270533727430661</v>
+        <v>0.017770960605719345</v>
       </c>
       <c r="T2" t="n">
-        <v>0.008031460885829091</v>
+        <v>0.01411675349716353</v>
       </c>
       <c r="U2" t="n">
-        <v>0.006207648927898972</v>
+        <v>0.011150263162254394</v>
       </c>
       <c r="V2" t="n">
-        <v>0.004708570060393386</v>
+        <v>0.008745543950958522</v>
       </c>
       <c r="W2" t="n">
-        <v>0.003458048350964375</v>
+        <v>0.006790668913903572</v>
       </c>
       <c r="X2" t="n">
-        <v>0.002391951112500991</v>
+        <v>0.005189770745035791</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0014558376857375746</v>
+        <v>0.003862007350256155</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.02900772830845E-4</v>
+        <v>0.002739398384753189</v>
       </c>
       <c r="AA2" t="n">
-        <v>-2.074807267862414E-4</v>
+        <v>0.001764439802638629</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.001009713418818205</v>
+        <v>8.879163381147872E-4</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0018277041498002428</v>
+        <v>6.719234408835456E-5</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.002657318005030952</v>
+        <v>-7.34436304073577E-4</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.003402745027044313</v>
+        <v>-0.001545457929303106</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.0036256665427889636</v>
+        <v>-0.002374952942272224</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.0014669769858594087</v>
+        <v>-0.0031717929939180873</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.00839625253415835</v>
+        <v>-0.0036699390307722707</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.01293042392421816</v>
+        <v>-0.00273178307688938</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0018398337964976943</v>
+        <v>0.003922471196134297</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.008490666931008181</v>
+        <v>0.014267769663694911</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.019908592092177685</v>
+        <v>0.005774196513627694</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.028030327097928256</v>
+        <v>-0.005039816536438686</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.022970681164124082</v>
+        <v>-0.015684335066482594</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.024076592331564638</v>
+        <v>-0.027140625433170116</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.027509637272352196</v>
+        <v>-0.02441332747995877</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.030493453693730972</v>
+        <v>-0.023099633415936037</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.03391946878706456</v>
+        <v>-0.026382650408926546</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.03798484583784092</v>
+        <v>-0.029470104810204907</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.04261096187425904</v>
+        <v>-0.032668177611769315</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.039170380186537485</v>
+        <v>-0.036529675509727536</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.04393434774408124</v>
+        <v>-0.04096907473132734</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.04591201675922894</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -1419,440 +1446,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>17.422987207464942</v>
+        <v>17.253392825030545</v>
       </c>
       <c r="B1" t="n">
-        <v>17.57474842707535</v>
+        <v>17.30433144276705</v>
       </c>
       <c r="C1" t="n">
-        <v>17.81805220438519</v>
+        <v>17.38538579234162</v>
       </c>
       <c r="D1" t="n">
-        <v>18.21061431744686</v>
+        <v>17.51465695343429</v>
       </c>
       <c r="E1" t="n">
-        <v>18.850062230898565</v>
+        <v>17.721566979273096</v>
       </c>
       <c r="F1" t="n">
-        <v>19.905666918063783</v>
+        <v>18.054579489373427</v>
       </c>
       <c r="G1" t="n">
-        <v>21.675518478990057</v>
+        <v>18.595039336299028</v>
       </c>
       <c r="H1" t="n">
-        <v>24.654353823012958</v>
+        <v>19.482791380820025</v>
       </c>
       <c r="I1" t="n">
-        <v>29.252871152829066</v>
+        <v>20.96353561176453</v>
       </c>
       <c r="J1" t="n">
-        <v>32.44044423592434</v>
+        <v>23.46130743910855</v>
       </c>
       <c r="K1" t="n">
-        <v>22.16108532274494</v>
+        <v>27.525273794552962</v>
       </c>
       <c r="L1" t="n">
-        <v>7.626397640744914</v>
+        <v>32.145018645921006</v>
       </c>
       <c r="M1" t="n">
-        <v>1.9275744292088837</v>
+        <v>27.521777658590278</v>
       </c>
       <c r="N1" t="n">
-        <v>0.35444060015004103</v>
+        <v>11.579728354654174</v>
       </c>
       <c r="O1" t="n">
-        <v>-0.03820961798705616</v>
+        <v>3.152648957442606</v>
       </c>
       <c r="P1" t="n">
-        <v>-0.10963079897416339</v>
+        <v>0.6781094853248116</v>
       </c>
       <c r="Q1" t="n">
-        <v>-0.09864363293473861</v>
+        <v>0.03748600451742944</v>
       </c>
       <c r="R1" t="n">
-        <v>-0.07257220862606496</v>
+        <v>-0.10081422714533812</v>
       </c>
       <c r="S1" t="n">
-        <v>-0.04923641334127111</v>
+        <v>-0.10586416701469638</v>
       </c>
       <c r="T1" t="n">
-        <v>-0.031945431225564494</v>
+        <v>-0.08159950029091693</v>
       </c>
       <c r="U1" t="n">
-        <v>-0.020056012649598238</v>
+        <v>-0.0565678258010636</v>
       </c>
       <c r="V1" t="n">
-        <v>-0.012175176220540344</v>
+        <v>-0.037187683209176196</v>
       </c>
       <c r="W1" t="n">
-        <v>-0.007055148312111656</v>
+        <v>-0.023600501472913916</v>
       </c>
       <c r="X1" t="n">
-        <v>-0.003767810001947867</v>
+        <v>-0.01450360854459671</v>
       </c>
       <c r="Y1" t="n">
-        <v>-0.0016731920728295796</v>
+        <v>-0.00856008172467602</v>
       </c>
       <c r="Z1" t="n">
-        <v>-3.466016535553304E-4</v>
+        <v>-0.0047309722590583025</v>
       </c>
       <c r="AA1" t="n">
-        <v>4.8758528202691193E-4</v>
+        <v>-0.0022855027883298424</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.0010054717898577879</v>
+        <v>-7.335407440568974E-4</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.0013178180971928797</v>
+        <v>2.4508563709072585E-4</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.0014924962061426252</v>
+        <v>8.559709718083335E-4</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.0015684967559144653</v>
+        <v>0.001229184727586792</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.0015639455676995468</v>
+        <v>0.001445324755177414</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.0014809900142687643</v>
+        <v>0.001552101516698137</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.0013195113642351542</v>
+        <v>0.0015741553953183458</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.0011956840099262823</v>
+        <v>0.0015185088881451492</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.0022499302810198665</v>
+        <v>0.0013821384683079263</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.005514605322961074</v>
+        <v>0.001207499903052258</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.0058044809809168</v>
+        <v>0.0015709412749156297</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.005632016900132964</v>
+        <v>0.004582272384175608</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.006163529817454591</v>
+        <v>0.005912870438841679</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.0071710537321738295</v>
+        <v>0.0056244323311637895</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.008201192773708108</v>
+        <v>0.005900595143399667</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.009346491228262997</v>
+        <v>0.006811379636644686</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.01073828512061584</v>
+        <v>0.007848228810827562</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.012417097060207449</v>
+        <v>0.008929261935639001</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.014473237573464966</v>
+        <v>0.010232875645107855</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.012926126626194478</v>
+        <v>0.011805820611985833</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.015102907496160577</v>
+        <v>0.013720518694140869</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.01609017793829544</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-186.36618796258153</v>
+        <v>-318.7440268706863</v>
       </c>
       <c r="B2" t="n">
-        <v>-148.3691008703691</v>
+        <v>-253.38736146674123</v>
       </c>
       <c r="C2" t="n">
-        <v>-118.26167516196833</v>
+        <v>-201.52238836413574</v>
       </c>
       <c r="D2" t="n">
-        <v>-94.42742712125703</v>
+        <v>-160.3849042493697</v>
       </c>
       <c r="E2" t="n">
-        <v>-75.5669226214933</v>
+        <v>-127.77955447758833</v>
       </c>
       <c r="F2" t="n">
-        <v>-60.60185766117153</v>
+        <v>-101.9599681299346</v>
       </c>
       <c r="G2" t="n">
-        <v>-48.53789856168994</v>
+        <v>-81.52858812414709</v>
       </c>
       <c r="H2" t="n">
-        <v>-38.15054095339719</v>
+        <v>-65.3434343088682</v>
       </c>
       <c r="I2" t="n">
-        <v>-27.069446220840987</v>
+        <v>-52.403053936143394</v>
       </c>
       <c r="J2" t="n">
-        <v>-10.548692501669672</v>
+        <v>-41.62054322775596</v>
       </c>
       <c r="K2" t="n">
-        <v>7.1134698571332216</v>
+        <v>-31.187269520992473</v>
       </c>
       <c r="L2" t="n">
-        <v>8.74258038892989</v>
+        <v>-17.085585833534317</v>
       </c>
       <c r="M2" t="n">
-        <v>4.902184778510122</v>
+        <v>2.4447531460849863</v>
       </c>
       <c r="N2" t="n">
-        <v>2.408322111719481</v>
+        <v>9.60581703731652</v>
       </c>
       <c r="O2" t="n">
-        <v>1.1584868946084528</v>
+        <v>6.139882493356287</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5548328601322426</v>
+        <v>3.085067357742413</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2635336726931393</v>
+        <v>1.4889263847957144</v>
       </c>
       <c r="R2" t="n">
-        <v>0.12266775902453853</v>
+        <v>0.7140897502405692</v>
       </c>
       <c r="S2" t="n">
-        <v>0.054727162249157336</v>
+        <v>0.340473638214594</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02231300834806103</v>
+        <v>0.1598735730470527</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007215677087501692</v>
+        <v>0.07262441428116959</v>
       </c>
       <c r="V2" t="n">
-        <v>5.166239710179764E-4</v>
+        <v>0.030794712372445812</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.0021604803578948945</v>
+        <v>0.011112368658400849</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.0029575778033843255</v>
+        <v>0.00219736898698885</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.0029142335992264293</v>
+        <v>-0.0015334599107610406</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.0025260981816848044</v>
+        <v>-0.0028166722813734568</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.002021111358005687</v>
+        <v>-0.002985327575987551</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.001495961343463114</v>
+        <v>-0.002679802961096077</v>
       </c>
       <c r="AC2" t="n">
-        <v>-9.830198659824423E-4</v>
+        <v>-0.0021991714901968846</v>
       </c>
       <c r="AD2" t="n">
-        <v>-4.8237139338197174E-4</v>
+        <v>-0.00167494876929529</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.44292404005115E-5</v>
+        <v>-0.0011566174497674461</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.722901299670694E-4</v>
+        <v>-6.530537180163515E-4</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0012240689621502347</v>
+        <v>-1.5137975168911518E-4</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0021137609254484953</v>
+        <v>3.7722321567159955E-4</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0035806379372740715</v>
+        <v>9.834802172200648E-4</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.006074928975297262</v>
+        <v>0.0017684122488554352</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.006218711742262963</v>
+        <v>0.0029769979228018335</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.00507044816016337</v>
+        <v>0.0051518148625847625</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.005636074310576623</v>
+        <v>0.006734535286147685</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0067936866077812404</v>
+        <v>0.0052259030251203785</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00781661566263933</v>
+        <v>0.00532406621473437</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00877761902471636</v>
+        <v>0.006389414814612456</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.009927047581506226</v>
+        <v>0.007493742947125527</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.011223913969408186</v>
+        <v>0.008431690721739797</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.012650181827323626</v>
+        <v>0.009513673725162096</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.01419503460623637</v>
+        <v>0.010766280183692415</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.013053665294551767</v>
+        <v>0.012147575316056942</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.014623143954203013</v>
+        <v>0.013655685447634765</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.015252554131384223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
